--- a/spec/ConvSpec-841-887-v1.7.xlsx
+++ b/spec/ConvSpec-841-887-v1.7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\share\BF 2.0 Bib specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\share\BF 2.0 Bib specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="177">
   <si>
     <t>841 - HOLDINGS CODED DATA VALUES (NR)</t>
   </si>
@@ -428,9 +428,6 @@
     <t>Conversion 1</t>
   </si>
   <si>
-    <t>Not in LC</t>
-  </si>
-  <si>
     <t>LC stats / Notes</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t xml:space="preserve">     $n - Manifestation regional encoding statement (R)</t>
   </si>
   <si>
-    <t>Fields 841-88X - Holdings, Location, Alternate Graphics, etc. - v1.7, 01/11/2021</t>
-  </si>
-  <si>
     <t>883 - METADATA PROVENANCE (R)</t>
   </si>
   <si>
@@ -555,6 +549,9 @@
   </si>
   <si>
     <t xml:space="preserve">      $q - Assigning or generating agency (NR)</t>
+  </si>
+  <si>
+    <t>Fields 841-88X - Holdings, Location, Alternate Graphics, etc. - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -612,18 +609,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -653,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -677,9 +668,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1002,13 +990,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1016,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1024,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1032,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1040,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1048,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1056,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1080,15 +1068,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -1323,7 +1311,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1331,7 +1319,7 @@
         <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1339,15 +1327,15 @@
         <v>51</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +1563,7 @@
         <v>88</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -1583,7 +1571,7 @@
         <v>89</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +1579,7 @@
         <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1599,7 +1587,7 @@
         <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1607,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1615,7 +1603,7 @@
         <v>93</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1623,7 +1611,7 @@
         <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1631,7 +1619,7 @@
         <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1639,7 +1627,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1647,7 +1635,7 @@
         <v>97</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1692,10 +1680,10 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -1712,97 +1700,97 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="3"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" s="3"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="3"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141" s="3"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" s="3"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143" s="3"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="3"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B148" s="3"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B149" s="3"/>
     </row>
@@ -1811,7 +1799,7 @@
         <v>103</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -1846,10 +1834,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>138</v>
+        <v>171</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -1859,7 +1847,7 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
@@ -1879,7 +1867,7 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
@@ -1889,7 +1877,7 @@
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
@@ -1899,12 +1887,12 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
@@ -1929,138 +1917,135 @@
     </row>
     <row r="175" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B177" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B189" s="4"/>
-    </row>
-    <row r="190" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="4" t="s">
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B190" s="4"/>
-    </row>
-    <row r="191" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="4" t="s">
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B191" s="4"/>
-    </row>
-    <row r="192" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="B192" s="4"/>
     </row>
     <row r="193" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B193" s="4"/>
     </row>
     <row r="194" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B194" s="4"/>
     </row>
     <row r="195" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B195" s="4"/>
     </row>
     <row r="196" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B197" s="4"/>
     </row>
     <row r="198" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B198" s="4"/>
     </row>
     <row r="199" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B199" s="4"/>
     </row>
@@ -2069,7 +2054,7 @@
         <v>118</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -2132,7 +2117,7 @@
         <v>128</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
